--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan7\Documents\GitHub\python_ai_class_hw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72224DD-C81A-410F-A20D-CCA65C742083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F35536-4E8D-45DF-A115-B8C15015C49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27863" yWindow="-4545" windowWidth="21600" windowHeight="11422" xr2:uid="{4C96DB4E-E1BA-441D-B1D4-0C80373375FB}"/>
+    <workbookView xWindow="-28898" yWindow="-5580" windowWidth="28996" windowHeight="15675" xr2:uid="{4C96DB4E-E1BA-441D-B1D4-0C80373375FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
   <si>
     <t>output_cnn_4layers_dropout2_batch1000</t>
   </si>
@@ -175,7 +175,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>output_cnn_4layers_dropout2_batch10000_5x5filters</t>
+    <t>output_cnn_4layers_dropout2_batch1000_2structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,9940</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_cnn_4layers_dropout2_batch1000_2structure_1pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_cnn_4layers_dropout2_batch1000_2structure_32_32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_cnn_4layers_dropout2_batch1000_5x5filters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epochs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_cnn_4layers_dropout2_batch1000_3x3filters_shuffle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_cnn_4layers_dropout2_batch1000_5x5filters_shuffle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_cnn_4layers_dropout2_batch1000_5x5filters_shuffle_4x4pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_cnn_4layers_dropout2_batch1000_5x5filters_shuffle_2x2pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_cnn_4layers_dropout2_batch1000_3structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_cnn_3layers_dropout2_batch1000_2structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_cnn_3layers_dropout2_batch1000_2structure_augment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_cnn_4layers_dropout2_batch1000_2structure_augment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_cnn_4layers_dropout2_batch1000_3structure_7x7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_cnn_3layers_dropout2_batch1000_2structure_batchnormalize</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,8 +282,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -540,22 +603,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBB2E6A-969A-440F-AEA1-37B22006F1F4}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="23.625" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
     <col min="10" max="10" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -589,8 +652,11 @@
       <c r="K1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -624,8 +690,11 @@
       <c r="K2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -659,8 +728,11 @@
       <c r="K3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -685,8 +757,11 @@
       <c r="K4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -711,8 +786,11 @@
       <c r="K5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -737,8 +815,11 @@
       <c r="K6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -772,8 +853,11 @@
       <c r="K7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -807,8 +891,11 @@
       <c r="K8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -842,8 +929,11 @@
       <c r="K9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -877,10 +967,13 @@
       <c r="K10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>0.99319999999999997</v>
@@ -911,6 +1004,150 @@
       </c>
       <c r="K11" t="s">
         <v>23</v>
+      </c>
+      <c r="M11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="M12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="M14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>0.99260000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>0.99299999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>0.99490000000000001</v>
+      </c>
+      <c r="I18" s="1">
+        <v>100200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="I19" s="1">
+        <v>200400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I20" s="1">
+        <v>200400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>0.9929</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>0.99450000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23">
+        <v>0.9929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>0.99209999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>0.99329999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>0.99139999999999995</v>
       </c>
     </row>
   </sheetData>
